--- a/Johns Hopkins AI Hackathon Answer Worksheet.xlsx
+++ b/Johns Hopkins AI Hackathon Answer Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noam\Downloads\Protenus AI Hackathon Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654BE2DE-D711-4383-A01A-2B817ABF9D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04098CA5-C100-4F8C-B526-B060D19DFD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{13D48A78-37AA-4B48-BBAF-CCE56FD507B7}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{13D48A78-37AA-4B48-BBAF-CCE56FD507B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="179">
   <si>
     <t>QUESTION 1</t>
   </si>
@@ -574,9 +574,6 @@
   </si>
   <si>
     <t>0061K00000fL98L</t>
-  </si>
-  <si>
-    <t>0.51 0.44999999999999996 0.2 0.45 0.31999999999999995 0.47 0.26 0.44 0.48 0.52 0.32 0.26 0.05 0.26 0.45999999999999996 0.29 0.12 0.52 0.44999999999999996 0.16 0.15 0.27 0.11 0.18 0.21 0.11 0.19 0.37 0.26 0.25 0.44 0.6599999999999999 0.43999999999999995 0.38 0.23 0.35000000000000003 0.11 0.48 0.26 0.37 0.41000000000000003 0.52 0.33 0.30000000000000004 0.12 0.11 0.04 0.35000000000000003 0.36000000000000004 0.6000000000000001 0.09000000000000001 0.21000000000000002 0.18 0.05 0.07 0.07 0.57 0.08 0.30000000000000004 0.33999999999999997 0.06 0.09 0.37 0.23 0.13 0.09000000000000001 0.35 0.22 0.68 0.2 0.32 0.19 0.49 0.22 0.47 0.1 0.30000000000000004 0.16 0.22 0.27 0.28 0.33999999999999997 0.11 0.06999999999999999 0.15 0.16 0.26 0.12 0.24 0.37 0.39 0.56 0.32999999999999996 0.28 0.25 0.8 0.61 0.28 0.12 0.08 0.19 0.08 0.38 0.3 0.12 0.06999999999999999 0.25 0.31999999999999995 0.15000000000000002 0.24 0.06 0.54 0.07 0.66 0.65 0.36 0.36 0.13 0.12 0.29000000000000004 0.18000000000000002 0.21 0.5 0.2 0.67 0.21 0.28 0.41 0.47 0.55 0.52 0.27 0.27999999999999997 0.42 0.5800000000000001 0.74 0.04 0.52 0.08 0.37 0.24000000000000002 0.48 0.17 0.27 0.54 0.56 0.51 0.0 0.5 0.37 0.22 0.24000000000000002</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1217,7 @@
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1270,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="41">
-        <v>2774570</v>
+        <v>2895046.8971999995</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -1295,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DD32A6-896A-AE45-BE06-87C5B57FFA30}">
   <dimension ref="A2:L163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1434,8 +1431,8 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="31" t="s">
-        <v>179</v>
+      <c r="B11" s="31">
+        <v>0.51</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="23">
@@ -1467,7 +1464,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="31">
-        <v>0.45</v>
+        <v>0.44999999999999901</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="23">
@@ -1563,7 +1560,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="31">
-        <v>0.32</v>
+        <v>0.31999999999999901</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="23">
@@ -1883,7 +1880,7 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="31">
-        <v>0.46</v>
+        <v>0.45999999999999902</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="23">
@@ -2011,7 +2008,7 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="31">
-        <v>0.45</v>
+        <v>0.44999999999999901</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="23">
@@ -2427,7 +2424,7 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="31">
-        <v>0.66</v>
+        <v>0.65999999999999903</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="23">
@@ -2459,7 +2456,7 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="31">
-        <v>0.44</v>
+        <v>0.439999999999999</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="23">
@@ -3323,7 +3320,7 @@
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="31">
-        <v>0.34</v>
+        <v>0.33999999999999903</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="23">
@@ -3419,7 +3416,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="31">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="23">
@@ -3451,7 +3448,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="31">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="23">
@@ -3483,7 +3480,7 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="31">
-        <v>0.68</v>
+        <v>0.13</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="23">
@@ -3515,7 +3512,7 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="31">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="23">
@@ -3547,7 +3544,7 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="31">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="23">
@@ -3579,7 +3576,7 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="31">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="23">
@@ -3611,7 +3608,7 @@
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="31">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="23">
@@ -3643,7 +3640,7 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="31">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="23">
@@ -3675,7 +3672,7 @@
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="42">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="23">
@@ -3707,7 +3704,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="31">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="23">
@@ -3739,7 +3736,7 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="31">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="23">
@@ -3771,7 +3768,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="31">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="23">
@@ -3803,7 +3800,7 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="31">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="23">
@@ -3835,7 +3832,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="31">
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="23">
@@ -3867,7 +3864,7 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="31">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="23">
@@ -3898,7 +3895,9 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="31"/>
+      <c r="B88" s="31">
+        <v>0.16</v>
+      </c>
       <c r="C88" s="11"/>
       <c r="D88" s="23">
         <v>45108</v>
@@ -3928,7 +3927,9 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="31"/>
+      <c r="B89" s="31">
+        <v>0.22</v>
+      </c>
       <c r="C89" s="11"/>
       <c r="D89" s="23">
         <v>45108</v>
@@ -3958,7 +3959,9 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="31"/>
+      <c r="B90" s="31">
+        <v>0.27</v>
+      </c>
       <c r="C90" s="11"/>
       <c r="D90" s="23">
         <v>45108</v>
@@ -3988,7 +3991,9 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="31"/>
+      <c r="B91" s="31">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="C91" s="11"/>
       <c r="D91" s="23">
         <v>45108</v>
@@ -4018,7 +4023,9 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="31"/>
+      <c r="B92" s="31">
+        <v>0.33999999999999903</v>
+      </c>
       <c r="C92" s="11"/>
       <c r="D92" s="23">
         <v>45108</v>
@@ -4048,7 +4055,9 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="31"/>
+      <c r="B93" s="31">
+        <v>0.11</v>
+      </c>
       <c r="C93" s="11"/>
       <c r="D93" s="23">
         <v>45108</v>
@@ -4078,7 +4087,9 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="31"/>
+      <c r="B94" s="31">
+        <v>6.9999999999999896E-2</v>
+      </c>
       <c r="C94" s="11"/>
       <c r="D94" s="23">
         <v>45108</v>
@@ -4108,7 +4119,9 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="31"/>
+      <c r="B95" s="31">
+        <v>0.15</v>
+      </c>
       <c r="C95" s="11"/>
       <c r="D95" s="23">
         <v>45108</v>
@@ -4138,7 +4151,9 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="31"/>
+      <c r="B96" s="31">
+        <v>0.16</v>
+      </c>
       <c r="C96" s="11"/>
       <c r="D96" s="23">
         <v>45108</v>
@@ -4168,7 +4183,9 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="31"/>
+      <c r="B97" s="31">
+        <v>0.26</v>
+      </c>
       <c r="C97" s="11"/>
       <c r="D97" s="23">
         <v>45108</v>
@@ -4198,7 +4215,9 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="B98" s="31"/>
+      <c r="B98" s="31">
+        <v>0.12</v>
+      </c>
       <c r="C98" s="11"/>
       <c r="D98" s="23">
         <v>45108</v>
@@ -4228,7 +4247,9 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="B99" s="31"/>
+      <c r="B99" s="31">
+        <v>0.24</v>
+      </c>
       <c r="C99" s="11"/>
       <c r="D99" s="23">
         <v>45108</v>
@@ -4258,7 +4279,9 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
-      <c r="B100" s="31"/>
+      <c r="B100" s="31">
+        <v>0.37</v>
+      </c>
       <c r="C100" s="11"/>
       <c r="D100" s="23">
         <v>45108</v>
@@ -4288,7 +4311,9 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
-      <c r="B101" s="31"/>
+      <c r="B101" s="31">
+        <v>0.39</v>
+      </c>
       <c r="C101" s="11"/>
       <c r="D101" s="23">
         <v>45108</v>
@@ -4318,7 +4343,9 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
-      <c r="B102" s="31"/>
+      <c r="B102" s="31">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="C102" s="11"/>
       <c r="D102" s="23">
         <v>45108</v>
@@ -4348,7 +4375,9 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
-      <c r="B103" s="31"/>
+      <c r="B103" s="31">
+        <v>0.32999999999999902</v>
+      </c>
       <c r="C103" s="11"/>
       <c r="D103" s="23">
         <v>45108</v>
@@ -4378,7 +4407,9 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
-      <c r="B104" s="31"/>
+      <c r="B104" s="31">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="C104" s="11"/>
       <c r="D104" s="23">
         <v>45108</v>
@@ -4408,7 +4439,9 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
-      <c r="B105" s="31"/>
+      <c r="B105" s="31">
+        <v>0.25</v>
+      </c>
       <c r="C105" s="11"/>
       <c r="D105" s="23">
         <v>45108</v>
@@ -4438,7 +4471,9 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="31"/>
+      <c r="B106" s="31">
+        <v>0.8</v>
+      </c>
       <c r="C106" s="11"/>
       <c r="D106" s="23">
         <v>45108</v>
@@ -4468,7 +4503,9 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
-      <c r="B107" s="31"/>
+      <c r="B107" s="31">
+        <v>0.61</v>
+      </c>
       <c r="C107" s="11"/>
       <c r="D107" s="23">
         <v>45108</v>
@@ -4498,7 +4535,9 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
-      <c r="B108" s="31"/>
+      <c r="B108" s="31">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="C108" s="11"/>
       <c r="D108" s="23">
         <v>45108</v>
@@ -4528,7 +4567,9 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
-      <c r="B109" s="31"/>
+      <c r="B109" s="31">
+        <v>0.12</v>
+      </c>
       <c r="C109" s="11"/>
       <c r="D109" s="23">
         <v>45108</v>
@@ -4558,7 +4599,9 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
-      <c r="B110" s="31"/>
+      <c r="B110" s="31">
+        <v>0.08</v>
+      </c>
       <c r="C110" s="11"/>
       <c r="D110" s="23">
         <v>45108</v>
@@ -4588,7 +4631,9 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
-      <c r="B111" s="31"/>
+      <c r="B111" s="31">
+        <v>0.19</v>
+      </c>
       <c r="C111" s="11"/>
       <c r="D111" s="23">
         <v>45108</v>
@@ -4618,7 +4663,9 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
-      <c r="B112" s="31"/>
+      <c r="B112" s="31">
+        <v>0.08</v>
+      </c>
       <c r="C112" s="11"/>
       <c r="D112" s="23">
         <v>45108</v>
@@ -4648,7 +4695,9 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
-      <c r="B113" s="31"/>
+      <c r="B113" s="31">
+        <v>0.38</v>
+      </c>
       <c r="C113" s="11"/>
       <c r="D113" s="23">
         <v>45108</v>
@@ -4678,7 +4727,9 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
-      <c r="B114" s="31"/>
+      <c r="B114" s="31">
+        <v>0.3</v>
+      </c>
       <c r="C114" s="11"/>
       <c r="D114" s="23">
         <v>45108</v>
@@ -4708,7 +4759,9 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
-      <c r="B115" s="31"/>
+      <c r="B115" s="31">
+        <v>0.12</v>
+      </c>
       <c r="C115" s="11"/>
       <c r="D115" s="23">
         <v>45108</v>
@@ -4738,7 +4791,9 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
-      <c r="B116" s="31"/>
+      <c r="B116" s="31">
+        <v>6.9999999999999896E-2</v>
+      </c>
       <c r="C116" s="11"/>
       <c r="D116" s="23">
         <v>45108</v>
@@ -4768,7 +4823,9 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
-      <c r="B117" s="31"/>
+      <c r="B117" s="31">
+        <v>0.25</v>
+      </c>
       <c r="C117" s="11"/>
       <c r="D117" s="23">
         <v>45108</v>
@@ -4798,7 +4855,9 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
-      <c r="B118" s="31"/>
+      <c r="B118" s="31">
+        <v>0.31999999999999901</v>
+      </c>
       <c r="C118" s="11"/>
       <c r="D118" s="23">
         <v>45108</v>
@@ -4828,7 +4887,9 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
-      <c r="B119" s="31"/>
+      <c r="B119" s="31">
+        <v>0.15</v>
+      </c>
       <c r="C119" s="11"/>
       <c r="D119" s="23">
         <v>45108</v>
@@ -4858,7 +4919,9 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
-      <c r="B120" s="31"/>
+      <c r="B120" s="31">
+        <v>0.24</v>
+      </c>
       <c r="C120" s="11"/>
       <c r="D120" s="23">
         <v>45108</v>
@@ -4888,7 +4951,9 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
-      <c r="B121" s="31"/>
+      <c r="B121" s="31">
+        <v>0.06</v>
+      </c>
       <c r="C121" s="11"/>
       <c r="D121" s="23">
         <v>45108</v>
@@ -4918,7 +4983,9 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
-      <c r="B122" s="31"/>
+      <c r="B122" s="31">
+        <v>0.54</v>
+      </c>
       <c r="C122" s="11"/>
       <c r="D122" s="23">
         <v>45108</v>
@@ -4948,7 +5015,9 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
-      <c r="B123" s="31"/>
+      <c r="B123" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="C123" s="11"/>
       <c r="D123" s="23">
         <v>45108</v>
@@ -4978,7 +5047,9 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
-      <c r="B124" s="31"/>
+      <c r="B124" s="31">
+        <v>0.66</v>
+      </c>
       <c r="C124" s="11"/>
       <c r="D124" s="23">
         <v>45108</v>
@@ -5008,7 +5079,9 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
-      <c r="B125" s="31"/>
+      <c r="B125" s="31">
+        <v>0.65</v>
+      </c>
       <c r="C125" s="11"/>
       <c r="D125" s="23">
         <v>45108</v>
@@ -5038,7 +5111,9 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
-      <c r="B126" s="31"/>
+      <c r="B126" s="31">
+        <v>0.36</v>
+      </c>
       <c r="C126" s="11"/>
       <c r="D126" s="23">
         <v>45108</v>
@@ -5068,7 +5143,9 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
-      <c r="B127" s="31"/>
+      <c r="B127" s="31">
+        <v>0.36</v>
+      </c>
       <c r="C127" s="11"/>
       <c r="D127" s="23">
         <v>45108</v>
@@ -5098,7 +5175,9 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
-      <c r="B128" s="31"/>
+      <c r="B128" s="31">
+        <v>0.13</v>
+      </c>
       <c r="C128" s="11"/>
       <c r="D128" s="23">
         <v>45108</v>
@@ -5128,7 +5207,9 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
-      <c r="B129" s="31"/>
+      <c r="B129" s="31">
+        <v>0.12</v>
+      </c>
       <c r="C129" s="11"/>
       <c r="D129" s="23">
         <v>45108</v>
@@ -5158,7 +5239,9 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="31"/>
+      <c r="B130" s="31">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="C130" s="11"/>
       <c r="D130" s="23">
         <v>45108</v>
@@ -5188,7 +5271,9 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
-      <c r="B131" s="31"/>
+      <c r="B131" s="31">
+        <v>0.18</v>
+      </c>
       <c r="C131" s="11"/>
       <c r="D131" s="23">
         <v>45108</v>
@@ -5218,7 +5303,9 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
-      <c r="B132" s="31"/>
+      <c r="B132" s="31">
+        <v>0.21</v>
+      </c>
       <c r="C132" s="11"/>
       <c r="D132" s="23">
         <v>45108</v>
@@ -5248,7 +5335,9 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
-      <c r="B133" s="31"/>
+      <c r="B133" s="31">
+        <v>0.5</v>
+      </c>
       <c r="C133" s="11"/>
       <c r="D133" s="23">
         <v>45108</v>
@@ -5278,7 +5367,9 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
-      <c r="B134" s="31"/>
+      <c r="B134" s="31">
+        <v>0.2</v>
+      </c>
       <c r="C134" s="11"/>
       <c r="D134" s="23">
         <v>45108</v>
@@ -5308,7 +5399,9 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
-      <c r="B135" s="31"/>
+      <c r="B135" s="31">
+        <v>0.67</v>
+      </c>
       <c r="C135" s="11"/>
       <c r="D135" s="23">
         <v>45108</v>
@@ -5338,7 +5431,9 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
-      <c r="B136" s="31"/>
+      <c r="B136" s="31">
+        <v>0.21</v>
+      </c>
       <c r="C136" s="11"/>
       <c r="D136" s="23">
         <v>45108</v>
@@ -5368,7 +5463,9 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
-      <c r="B137" s="31"/>
+      <c r="B137" s="31">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="C137" s="11"/>
       <c r="D137" s="23">
         <v>45108</v>
@@ -5398,7 +5495,9 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
-      <c r="B138" s="31"/>
+      <c r="B138" s="31">
+        <v>0.41</v>
+      </c>
       <c r="C138" s="11"/>
       <c r="D138" s="23">
         <v>45108</v>
@@ -5428,7 +5527,9 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
-      <c r="B139" s="31"/>
+      <c r="B139" s="31">
+        <v>0.47</v>
+      </c>
       <c r="C139" s="11"/>
       <c r="D139" s="23">
         <v>45108</v>
@@ -5458,7 +5559,9 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
-      <c r="B140" s="31"/>
+      <c r="B140" s="31">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="C140" s="11"/>
       <c r="D140" s="23">
         <v>45108</v>
@@ -5488,7 +5591,9 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
-      <c r="B141" s="31"/>
+      <c r="B141" s="31">
+        <v>0.52</v>
+      </c>
       <c r="C141" s="11"/>
       <c r="D141" s="23">
         <v>45108</v>
@@ -5518,7 +5623,9 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
-      <c r="B142" s="31"/>
+      <c r="B142" s="31">
+        <v>0.27</v>
+      </c>
       <c r="C142" s="11"/>
       <c r="D142" s="23">
         <v>45108</v>
@@ -5548,7 +5655,9 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
-      <c r="B143" s="31"/>
+      <c r="B143" s="31">
+        <v>0.27999999999999903</v>
+      </c>
       <c r="C143" s="11"/>
       <c r="D143" s="23">
         <v>45108</v>
@@ -5578,7 +5687,9 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
-      <c r="B144" s="31"/>
+      <c r="B144" s="31">
+        <v>0.42</v>
+      </c>
       <c r="C144" s="11"/>
       <c r="D144" s="23">
         <v>45108</v>
@@ -5608,7 +5719,9 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
-      <c r="B145" s="31"/>
+      <c r="B145" s="31">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="C145" s="11"/>
       <c r="D145" s="23">
         <v>45108</v>
@@ -5638,7 +5751,9 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
-      <c r="B146" s="31"/>
+      <c r="B146" s="31">
+        <v>0.74</v>
+      </c>
       <c r="C146" s="11"/>
       <c r="D146" s="23">
         <v>45108</v>
@@ -5668,7 +5783,9 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
-      <c r="B147" s="31"/>
+      <c r="B147" s="31">
+        <v>0.04</v>
+      </c>
       <c r="C147" s="11"/>
       <c r="D147" s="23">
         <v>45108</v>
@@ -5698,7 +5815,9 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
-      <c r="B148" s="31"/>
+      <c r="B148" s="31">
+        <v>0.52</v>
+      </c>
       <c r="C148" s="11"/>
       <c r="D148" s="23">
         <v>45108</v>
@@ -5728,7 +5847,9 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
-      <c r="B149" s="31"/>
+      <c r="B149" s="31">
+        <v>0.08</v>
+      </c>
       <c r="C149" s="11"/>
       <c r="D149" s="23">
         <v>45108</v>
@@ -5758,7 +5879,9 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
-      <c r="B150" s="31"/>
+      <c r="B150" s="31">
+        <v>0.37</v>
+      </c>
       <c r="C150" s="11"/>
       <c r="D150" s="23">
         <v>45108</v>
@@ -5788,7 +5911,9 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
-      <c r="B151" s="31"/>
+      <c r="B151" s="31">
+        <v>0.24</v>
+      </c>
       <c r="C151" s="11"/>
       <c r="D151" s="23">
         <v>45108</v>
@@ -5818,7 +5943,9 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
-      <c r="B152" s="31"/>
+      <c r="B152" s="31">
+        <v>0.48</v>
+      </c>
       <c r="C152" s="11"/>
       <c r="D152" s="23">
         <v>45108</v>
@@ -5848,7 +5975,9 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
-      <c r="B153" s="31"/>
+      <c r="B153" s="31">
+        <v>0.17</v>
+      </c>
       <c r="C153" s="11"/>
       <c r="D153" s="23">
         <v>45108</v>
@@ -5878,7 +6007,9 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
-      <c r="B154" s="31"/>
+      <c r="B154" s="31">
+        <v>0.27</v>
+      </c>
       <c r="C154" s="11"/>
       <c r="D154" s="23">
         <v>45108</v>
@@ -5908,7 +6039,9 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
-      <c r="B155" s="31"/>
+      <c r="B155" s="31">
+        <v>0.54</v>
+      </c>
       <c r="C155" s="11"/>
       <c r="D155" s="23">
         <v>45108</v>
@@ -5938,7 +6071,9 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="31"/>
+      <c r="B156" s="31">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="C156" s="11"/>
       <c r="D156" s="23">
         <v>45108</v>
@@ -5968,7 +6103,9 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
-      <c r="B157" s="31"/>
+      <c r="B157" s="31">
+        <v>0.51</v>
+      </c>
       <c r="C157" s="11"/>
       <c r="D157" s="23">
         <v>45108</v>
@@ -5998,7 +6135,9 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
-      <c r="B158" s="31"/>
+      <c r="B158" s="31">
+        <v>0</v>
+      </c>
       <c r="C158" s="11"/>
       <c r="D158" s="23">
         <v>45108</v>
@@ -6028,7 +6167,9 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
-      <c r="B159" s="31"/>
+      <c r="B159" s="31">
+        <v>0.5</v>
+      </c>
       <c r="C159" s="11"/>
       <c r="D159" s="23">
         <v>45108</v>
@@ -6058,7 +6199,9 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
-      <c r="B160" s="31"/>
+      <c r="B160" s="31">
+        <v>0.37</v>
+      </c>
       <c r="C160" s="11"/>
       <c r="D160" s="23">
         <v>45108</v>
@@ -6088,7 +6231,9 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
-      <c r="B161" s="31"/>
+      <c r="B161" s="31">
+        <v>0.22</v>
+      </c>
       <c r="C161" s="11"/>
       <c r="D161" s="23">
         <v>45108</v>
@@ -6118,7 +6263,9 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
-      <c r="B162" s="33"/>
+      <c r="B162" s="33">
+        <v>0.24</v>
+      </c>
       <c r="C162" s="34"/>
       <c r="D162" s="25">
         <v>45108</v>
